--- a/speed_profiling.xlsx
+++ b/speed_profiling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="36435" windowHeight="14880"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="36435" windowHeight="14880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$7:$L$958</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$C$7:$H$922</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$C$8:$H$8</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1081">
   <si>
     <t>function</t>
   </si>
@@ -3046,14 +3048,238 @@
   </si>
   <si>
     <t>drops/second</t>
+  </si>
+  <si>
+    <t>(2407897</t>
+  </si>
+  <si>
+    <t>ai.py:115(try_dropping)</t>
+  </si>
+  <si>
+    <t>ai.py:163(calculate_cost)</t>
+  </si>
+  <si>
+    <t>ai.py:182(__init__)</t>
+  </si>
+  <si>
+    <t>ai.py:264(get_possible_moves)</t>
+  </si>
+  <si>
+    <t>ai.py:283(prune_moves)</t>
+  </si>
+  <si>
+    <t>ai.py:309(get_best_moves)</t>
+  </si>
+  <si>
+    <t>ai.py:314(&lt;dictcomp&gt;)</t>
+  </si>
+  <si>
+    <t>ai.py:60(skip_move)</t>
+  </si>
+  <si>
+    <t>ai.py:91(__init__)</t>
+  </si>
+  <si>
+    <t>1254/12</t>
+  </si>
+  <si>
+    <t>3823/1625</t>
+  </si>
+  <si>
+    <t>4237/1855</t>
+  </si>
+  <si>
+    <t>240/40</t>
+  </si>
+  <si>
+    <t>480/40</t>
+  </si>
+  <si>
+    <t>brine.py:332(dump)</t>
+  </si>
+  <si>
+    <t>200/40</t>
+  </si>
+  <si>
+    <t>280/160</t>
+  </si>
+  <si>
+    <t>case.py:924(assertLess)</t>
+  </si>
+  <si>
+    <t>28584/759</t>
+  </si>
+  <si>
+    <t>1429/769</t>
+  </si>
+  <si>
+    <t>2858/769</t>
+  </si>
+  <si>
+    <t>shapeops.py:101(get_height_box)</t>
+  </si>
+  <si>
+    <t>shapeops.py:104(combine_split)</t>
+  </si>
+  <si>
+    <t>shapeops.py:41(get_shape_polygon)</t>
+  </si>
+  <si>
+    <t>shapeops.py:44(get_piece_colour)</t>
+  </si>
+  <si>
+    <t>shapeops.py:52(num_useful_rotations)</t>
+  </si>
+  <si>
+    <t>shapeops.py:73(&lt;genexpr&gt;)</t>
+  </si>
+  <si>
+    <t>shapeops.py:79(merge)</t>
+  </si>
+  <si>
+    <t>shapeops.py:85(move)</t>
+  </si>
+  <si>
+    <t>shapeops.py:88(rotate)</t>
+  </si>
+  <si>
+    <t>shapeops.py:92(get_row_box)</t>
+  </si>
+  <si>
+    <t>shapeops.py:95(get_single_box)</t>
+  </si>
+  <si>
+    <t>shapeops.py:98(get_box)</t>
+  </si>
+  <si>
+    <t>3800/2784</t>
+  </si>
+  <si>
+    <t>3660/2784</t>
+  </si>
+  <si>
+    <t>test_scenario.py:61(test_scenario_2)</t>
+  </si>
+  <si>
+    <t>tetris.py:110(calculate_height)</t>
+  </si>
+  <si>
+    <t>tetris.py:119(drop)</t>
+  </si>
+  <si>
+    <t>tetris.py:148(update_merged_pieces)</t>
+  </si>
+  <si>
+    <t>tetris.py:151(check_full_rows)</t>
+  </si>
+  <si>
+    <t>tetris.py:171(is_row_full)</t>
+  </si>
+  <si>
+    <t>tetris.py:176(remove_full_row)</t>
+  </si>
+  <si>
+    <t>tetris.py:198(count_gaps)</t>
+  </si>
+  <si>
+    <t>tetris.py:233(calculate_blocks_above_height)</t>
+  </si>
+  <si>
+    <t>tetris.py:259(validate_pieces)</t>
+  </si>
+  <si>
+    <t>tetris.py:261(&lt;setcomp&gt;)</t>
+  </si>
+  <si>
+    <t>tetris.py:275(__init__)</t>
+  </si>
+  <si>
+    <t>tetris.py:293(move_to)</t>
+  </si>
+  <si>
+    <t>tetris.py:317(left)</t>
+  </si>
+  <si>
+    <t>tetris.py:321(left)</t>
+  </si>
+  <si>
+    <t>tetris.py:325(bottom)</t>
+  </si>
+  <si>
+    <t>tetris.py:329(bottom)</t>
+  </si>
+  <si>
+    <t>tetris.py:334(rotate)</t>
+  </si>
+  <si>
+    <t>tetris.py:363(rotation)</t>
+  </si>
+  <si>
+    <t>tetris.py:367(rotation)</t>
+  </si>
+  <si>
+    <t>tetris.py:371(width)</t>
+  </si>
+  <si>
+    <t>tetris.py:389(intersects)</t>
+  </si>
+  <si>
+    <t>tetris.py:393(split)</t>
+  </si>
+  <si>
+    <t>tetris.py:63(solve)</t>
+  </si>
+  <si>
+    <t>tetris.py:77(&lt;dictcomp&gt;)</t>
+  </si>
+  <si>
+    <t>1632/1584</t>
+  </si>
+  <si>
+    <t>2049/1665</t>
+  </si>
+  <si>
+    <t>2022/2010</t>
+  </si>
+  <si>
+    <t>120/40</t>
+  </si>
+  <si>
+    <t>3344/2610</t>
+  </si>
+  <si>
+    <t>133590/128199</t>
+  </si>
+  <si>
+    <t>With no plotting</t>
+  </si>
+  <si>
+    <t>(984749</t>
+  </si>
+  <si>
+    <t>drops/s</t>
+  </si>
+  <si>
+    <t>Old count_gaps</t>
+  </si>
+  <si>
+    <t>With new count_gaps (and plotting - big delay from this)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3081,9 +3307,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3385,15 +3612,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G3:S958"/>
+  <dimension ref="D2:S958"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="3" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G3">
         <v>11105067</v>
       </c>
@@ -3422,7 +3654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>7</v>
       </c>
@@ -3436,7 +3668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>11</v>
       </c>
@@ -3456,7 +3688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G8">
         <v>1</v>
       </c>
@@ -3476,7 +3708,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G9">
         <v>1</v>
       </c>
@@ -3500,7 +3732,7 @@
         <v>2.823632261703328E-2</v>
       </c>
     </row>
-    <row r="10" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G10">
         <v>1</v>
       </c>
@@ -3524,7 +3756,7 @@
         <v>28.236322617033281</v>
       </c>
     </row>
-    <row r="11" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>72</v>
       </c>
@@ -3551,7 +3783,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G12">
         <v>1773</v>
       </c>
@@ -3571,7 +3803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G13">
         <v>3546</v>
       </c>
@@ -3591,7 +3823,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G14">
         <v>83146</v>
       </c>
@@ -3615,7 +3847,7 @@
         <v>46.895657078398195</v>
       </c>
     </row>
-    <row r="15" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G15">
         <v>85066</v>
       </c>
@@ -3639,7 +3871,7 @@
         <v>4.263241552581654</v>
       </c>
     </row>
-    <row r="16" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:19" x14ac:dyDescent="0.25">
       <c r="G16">
         <v>1968</v>
       </c>
@@ -23294,24 +23526,9485 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O907"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2454563</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>6.9160000000000004</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>5.0730000000000004</v>
+      </c>
+      <c r="G8">
+        <v>5.0730000000000004</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>41361</v>
+      </c>
+      <c r="D9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5.0510000000000002</v>
+      </c>
+      <c r="G9">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>243</v>
+      </c>
+      <c r="D10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3.452</v>
+      </c>
+      <c r="G10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1E-3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1385</v>
+      </c>
+      <c r="D12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1293</v>
+      </c>
+      <c r="D13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13">
+        <f>J3/C10</f>
+        <v>2.846090534979424E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="G14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14">
+        <f>M13*1000</f>
+        <v>28.460905349794242</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.48</v>
+      </c>
+      <c r="G15">
+        <v>0.04</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15">
+        <f>1/M13</f>
+        <v>35.135916714864081</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>36273</v>
+      </c>
+      <c r="D16">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D17">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>668</v>
+      </c>
+      <c r="M18">
+        <f>B20/C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D19">
+        <v>2E-3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>660</v>
+      </c>
+      <c r="M19">
+        <f>M18/11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.218</v>
+      </c>
+      <c r="G20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.123</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.123</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>1E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.112</v>
+      </c>
+      <c r="G23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>903</v>
+      </c>
+      <c r="D24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.109</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>177</v>
+      </c>
+      <c r="D25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G25">
+        <v>1E-3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>13375</v>
+      </c>
+      <c r="D26">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>177</v>
+      </c>
+      <c r="D27">
+        <v>1E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>177</v>
+      </c>
+      <c r="D28">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G29">
+        <v>2E-3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>15296</v>
+      </c>
+      <c r="D30">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G31">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G32">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>68079</v>
+      </c>
+      <c r="D33">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2858</v>
+      </c>
+      <c r="D34">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D36">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>92</v>
+      </c>
+      <c r="D37">
+        <v>1E-3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>243</v>
+      </c>
+      <c r="D38">
+        <v>1E-3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>5526</v>
+      </c>
+      <c r="D39">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>3166</v>
+      </c>
+      <c r="D40">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D41">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G42">
+        <v>2E-3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>77148</v>
+      </c>
+      <c r="D43">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>4896</v>
+      </c>
+      <c r="D44">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D45">
+        <v>2E-3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G46">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>5473</v>
+      </c>
+      <c r="D47">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>12717</v>
+      </c>
+      <c r="D48">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>17195</v>
+      </c>
+      <c r="D49">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>82029</v>
+      </c>
+      <c r="D50">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>56961</v>
+      </c>
+      <c r="D51">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>17208</v>
+      </c>
+      <c r="D52">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D53">
+        <v>2E-3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>56646</v>
+      </c>
+      <c r="D54">
+        <v>0.01</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.01</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>57466</v>
+      </c>
+      <c r="D55">
+        <v>0.01</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0.01</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.01</v>
+      </c>
+      <c r="G56">
+        <v>1E-3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.01</v>
+      </c>
+      <c r="G57">
+        <v>1E-3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>8927</v>
+      </c>
+      <c r="D58">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>4782</v>
+      </c>
+      <c r="D59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>6129</v>
+      </c>
+      <c r="D60">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G61">
+        <v>1E-3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>57991</v>
+      </c>
+      <c r="D62">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>4958</v>
+      </c>
+      <c r="D63">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1610</v>
+      </c>
+      <c r="D64">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>4919</v>
+      </c>
+      <c r="D65">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>40</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G68">
+        <v>1E-3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>22379</v>
+      </c>
+      <c r="D69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>3920</v>
+      </c>
+      <c r="D70">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>4132</v>
+      </c>
+      <c r="D72">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>1385</v>
+      </c>
+      <c r="D73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>1429</v>
+      </c>
+      <c r="D74">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>4930</v>
+      </c>
+      <c r="D75">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>5391</v>
+      </c>
+      <c r="D76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>4156</v>
+      </c>
+      <c r="D77">
+        <v>2E-3</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>1865</v>
+      </c>
+      <c r="D78">
+        <v>2E-3</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>16213</v>
+      </c>
+      <c r="D80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>1254</v>
+      </c>
+      <c r="D81">
+        <v>2E-3</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>33</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>33</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>1254</v>
+      </c>
+      <c r="D86">
+        <v>2E-3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>2E-3</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>1302</v>
+      </c>
+      <c r="D87">
+        <v>2E-3</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2E-3</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>614</v>
+      </c>
+      <c r="D88">
+        <v>2E-3</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>2E-3</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>614</v>
+      </c>
+      <c r="D89">
+        <v>2E-3</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>2E-3</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>2744</v>
+      </c>
+      <c r="D90">
+        <v>2E-3</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>2E-3</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>1323</v>
+      </c>
+      <c r="D91">
+        <v>1E-3</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>2E-3</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>681</v>
+      </c>
+      <c r="D92">
+        <v>1E-3</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>2E-3</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>2E-3</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>2E-3</v>
+      </c>
+      <c r="G94">
+        <v>2E-3</v>
+      </c>
+      <c r="H94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>2E-3</v>
+      </c>
+      <c r="G95">
+        <v>2E-3</v>
+      </c>
+      <c r="H95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>92</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>2E-3</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>33</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>2E-3</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>2E-3</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>1323</v>
+      </c>
+      <c r="D99">
+        <v>1E-3</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1E-3</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>243</v>
+      </c>
+      <c r="D100">
+        <v>1E-3</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1E-3</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>2046</v>
+      </c>
+      <c r="D101">
+        <v>1E-3</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1E-3</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>2508</v>
+      </c>
+      <c r="D102">
+        <v>1E-3</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1E-3</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>2508</v>
+      </c>
+      <c r="D103">
+        <v>1E-3</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1E-3</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>1108</v>
+      </c>
+      <c r="D104">
+        <v>1E-3</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1E-3</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>536</v>
+      </c>
+      <c r="D105">
+        <v>1E-3</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1E-3</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>287</v>
+      </c>
+      <c r="D106">
+        <v>1E-3</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1E-3</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>2822</v>
+      </c>
+      <c r="D107">
+        <v>1E-3</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1E-3</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>2772</v>
+      </c>
+      <c r="D108">
+        <v>1E-3</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1E-3</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>633</v>
+      </c>
+      <c r="D109">
+        <v>1E-3</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1E-3</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>2978</v>
+      </c>
+      <c r="D110">
+        <v>1E-3</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1E-3</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>23</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1E-3</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>21</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>22</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>22</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>31</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>14</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>14</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>36</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>243</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>101</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>89</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>918</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>23</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>237</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>1590</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>150</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>33</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>33</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>46</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>46</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>24</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>12</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>24</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>12</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>12</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>12</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>12</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>35</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>92</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>24</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>72</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>118</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>92</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>24</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>40</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>12</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>12</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>225</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>1452</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>82</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>48</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>99</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>49</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>40</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>8</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>276</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>208</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>75</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>192</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>136</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>211</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>16</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>3</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>40</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>7</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>46</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>223</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>69</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>78</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>23</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="219" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>103</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="817" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I817" t="s">
+        <v>875</v>
+      </c>
+      <c r="J817" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="818" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I818" t="s">
+        <v>875</v>
+      </c>
+      <c r="J818" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="819" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I819" t="s">
+        <v>875</v>
+      </c>
+      <c r="J819" t="s">
+        <v>878</v>
+      </c>
+      <c r="K819" t="s">
+        <v>879</v>
+      </c>
+      <c r="L819" t="s">
+        <v>880</v>
+      </c>
+      <c r="M819" t="s">
+        <v>881</v>
+      </c>
+      <c r="N819" t="s">
+        <v>882</v>
+      </c>
+      <c r="O819" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="820" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I820" t="s">
+        <v>875</v>
+      </c>
+      <c r="J820" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="821" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I821" t="s">
+        <v>875</v>
+      </c>
+      <c r="J821" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="822" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I822" t="s">
+        <v>875</v>
+      </c>
+      <c r="J822" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="823" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I823" t="s">
+        <v>875</v>
+      </c>
+      <c r="J823" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="824" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I824" t="s">
+        <v>875</v>
+      </c>
+      <c r="J824" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="825" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I825" t="s">
+        <v>875</v>
+      </c>
+      <c r="J825" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="826" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I826" t="s">
+        <v>875</v>
+      </c>
+      <c r="J826" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="827" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I827" t="s">
+        <v>875</v>
+      </c>
+      <c r="J827" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="828" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I828" t="s">
+        <v>875</v>
+      </c>
+      <c r="J828" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="829" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I829" t="s">
+        <v>875</v>
+      </c>
+      <c r="J829" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="830" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I830" t="s">
+        <v>875</v>
+      </c>
+      <c r="J830" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="831" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I831" t="s">
+        <v>875</v>
+      </c>
+      <c r="J831" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="832" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I832" t="s">
+        <v>875</v>
+      </c>
+      <c r="J832" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="833" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I833" t="s">
+        <v>875</v>
+      </c>
+      <c r="J833" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="834" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I834" t="s">
+        <v>875</v>
+      </c>
+      <c r="J834" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="835" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I835" t="s">
+        <v>875</v>
+      </c>
+      <c r="J835" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="836" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I836" t="s">
+        <v>875</v>
+      </c>
+      <c r="J836" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="837" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I837" t="s">
+        <v>875</v>
+      </c>
+      <c r="J837" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="859" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I859" t="s">
+        <v>927</v>
+      </c>
+      <c r="J859" t="s">
+        <v>879</v>
+      </c>
+      <c r="K859" t="s">
+        <v>928</v>
+      </c>
+      <c r="L859" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="860" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I860" t="s">
+        <v>930</v>
+      </c>
+      <c r="J860" t="s">
+        <v>879</v>
+      </c>
+      <c r="K860" t="s">
+        <v>931</v>
+      </c>
+      <c r="L860" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="861" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I861" t="s">
+        <v>932</v>
+      </c>
+      <c r="J861" t="s">
+        <v>879</v>
+      </c>
+      <c r="K861" t="s">
+        <v>933</v>
+      </c>
+      <c r="L861" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="862" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I862" t="s">
+        <v>934</v>
+      </c>
+      <c r="J862" t="s">
+        <v>879</v>
+      </c>
+      <c r="K862" t="s">
+        <v>935</v>
+      </c>
+      <c r="L862" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="863" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I863" t="s">
+        <v>936</v>
+      </c>
+      <c r="J863" t="s">
+        <v>879</v>
+      </c>
+      <c r="K863" t="s">
+        <v>935</v>
+      </c>
+      <c r="L863" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="864" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I864" t="s">
+        <v>937</v>
+      </c>
+      <c r="J864" t="s">
+        <v>879</v>
+      </c>
+      <c r="K864" t="s">
+        <v>938</v>
+      </c>
+      <c r="L864" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="865" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I865" t="s">
+        <v>939</v>
+      </c>
+      <c r="J865" t="s">
+        <v>879</v>
+      </c>
+      <c r="K865" t="s">
+        <v>940</v>
+      </c>
+      <c r="L865" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="866" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I866" t="s">
+        <v>939</v>
+      </c>
+      <c r="J866" t="s">
+        <v>879</v>
+      </c>
+      <c r="K866" t="s">
+        <v>935</v>
+      </c>
+      <c r="L866" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="867" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I867" t="s">
+        <v>941</v>
+      </c>
+      <c r="J867" t="s">
+        <v>879</v>
+      </c>
+      <c r="K867" t="s">
+        <v>942</v>
+      </c>
+      <c r="L867" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="868" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I868" t="s">
+        <v>943</v>
+      </c>
+      <c r="J868" t="s">
+        <v>879</v>
+      </c>
+      <c r="K868" t="s">
+        <v>944</v>
+      </c>
+      <c r="L868" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="869" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I869" t="s">
+        <v>945</v>
+      </c>
+      <c r="J869" t="s">
+        <v>879</v>
+      </c>
+      <c r="K869" t="s">
+        <v>946</v>
+      </c>
+      <c r="L869" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="870" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I870" t="s">
+        <v>947</v>
+      </c>
+      <c r="J870" t="s">
+        <v>879</v>
+      </c>
+      <c r="K870" t="s">
+        <v>938</v>
+      </c>
+      <c r="L870" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="871" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I871" t="s">
+        <v>950</v>
+      </c>
+      <c r="J871" t="s">
+        <v>879</v>
+      </c>
+      <c r="K871" t="s">
+        <v>935</v>
+      </c>
+      <c r="L871" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="872" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I872" t="s">
+        <v>951</v>
+      </c>
+      <c r="J872" t="s">
+        <v>879</v>
+      </c>
+      <c r="K872" t="s">
+        <v>935</v>
+      </c>
+      <c r="L872" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="873" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I873" t="s">
+        <v>953</v>
+      </c>
+      <c r="J873" t="s">
+        <v>879</v>
+      </c>
+      <c r="K873" t="s">
+        <v>946</v>
+      </c>
+      <c r="L873" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="874" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I874" t="s">
+        <v>954</v>
+      </c>
+      <c r="J874" t="s">
+        <v>879</v>
+      </c>
+      <c r="K874" t="s">
+        <v>940</v>
+      </c>
+      <c r="L874" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="875" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I875" t="s">
+        <v>954</v>
+      </c>
+      <c r="J875" t="s">
+        <v>879</v>
+      </c>
+      <c r="K875" t="s">
+        <v>955</v>
+      </c>
+      <c r="L875" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="876" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I876" t="s">
+        <v>956</v>
+      </c>
+      <c r="J876" t="s">
+        <v>879</v>
+      </c>
+      <c r="K876" t="s">
+        <v>938</v>
+      </c>
+      <c r="L876" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="877" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I877" t="s">
+        <v>957</v>
+      </c>
+      <c r="J877" t="s">
+        <v>879</v>
+      </c>
+      <c r="K877" t="s">
+        <v>940</v>
+      </c>
+      <c r="L877" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="878" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I878" t="s">
+        <v>958</v>
+      </c>
+      <c r="J878" t="s">
+        <v>879</v>
+      </c>
+      <c r="K878" t="s">
+        <v>940</v>
+      </c>
+      <c r="L878" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="879" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I879" t="s">
+        <v>959</v>
+      </c>
+      <c r="J879" t="s">
+        <v>879</v>
+      </c>
+      <c r="K879" t="s">
+        <v>940</v>
+      </c>
+      <c r="L879" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="880" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I880" t="s">
+        <v>960</v>
+      </c>
+      <c r="J880" t="s">
+        <v>879</v>
+      </c>
+      <c r="K880" t="s">
+        <v>946</v>
+      </c>
+      <c r="L880" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="881" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I881" t="s">
+        <v>961</v>
+      </c>
+      <c r="J881" t="s">
+        <v>879</v>
+      </c>
+      <c r="K881" t="s">
+        <v>940</v>
+      </c>
+      <c r="L881" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="882" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I882" t="s">
+        <v>962</v>
+      </c>
+      <c r="J882" t="s">
+        <v>879</v>
+      </c>
+      <c r="K882" t="s">
+        <v>946</v>
+      </c>
+      <c r="L882" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="883" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I883" t="s">
+        <v>963</v>
+      </c>
+      <c r="J883" t="s">
+        <v>879</v>
+      </c>
+      <c r="K883" t="s">
+        <v>964</v>
+      </c>
+      <c r="L883" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="884" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I884" t="s">
+        <v>965</v>
+      </c>
+      <c r="J884" t="s">
+        <v>879</v>
+      </c>
+      <c r="K884" t="s">
+        <v>935</v>
+      </c>
+      <c r="L884" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="885" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I885" t="s">
+        <v>966</v>
+      </c>
+      <c r="J885" t="s">
+        <v>879</v>
+      </c>
+      <c r="K885" t="s">
+        <v>935</v>
+      </c>
+      <c r="L885" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="886" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I886" t="s">
+        <v>967</v>
+      </c>
+      <c r="J886" t="s">
+        <v>879</v>
+      </c>
+      <c r="K886" t="s">
+        <v>935</v>
+      </c>
+      <c r="L886" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="887" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I887" t="s">
+        <v>968</v>
+      </c>
+      <c r="J887" t="s">
+        <v>879</v>
+      </c>
+      <c r="K887" t="s">
+        <v>969</v>
+      </c>
+      <c r="L887" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="888" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I888" t="s">
+        <v>970</v>
+      </c>
+      <c r="J888" t="s">
+        <v>879</v>
+      </c>
+      <c r="K888" t="s">
+        <v>940</v>
+      </c>
+      <c r="L888" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="889" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I889" t="s">
+        <v>970</v>
+      </c>
+      <c r="J889" t="s">
+        <v>879</v>
+      </c>
+      <c r="K889" t="s">
+        <v>938</v>
+      </c>
+      <c r="L889" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="890" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I890" t="s">
+        <v>971</v>
+      </c>
+      <c r="J890" t="s">
+        <v>879</v>
+      </c>
+      <c r="K890" t="s">
+        <v>935</v>
+      </c>
+      <c r="L890" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="891" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I891" t="s">
+        <v>975</v>
+      </c>
+      <c r="J891" t="s">
+        <v>879</v>
+      </c>
+      <c r="K891" t="s">
+        <v>933</v>
+      </c>
+      <c r="L891" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="892" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I892" t="s">
+        <v>976</v>
+      </c>
+      <c r="J892" t="s">
+        <v>879</v>
+      </c>
+      <c r="K892" t="s">
+        <v>938</v>
+      </c>
+      <c r="L892" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="893" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I893" t="s">
+        <v>977</v>
+      </c>
+      <c r="J893" t="s">
+        <v>879</v>
+      </c>
+      <c r="K893" t="s">
+        <v>946</v>
+      </c>
+      <c r="L893" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="894" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I894" t="s">
+        <v>977</v>
+      </c>
+      <c r="J894" t="s">
+        <v>879</v>
+      </c>
+      <c r="K894" t="s">
+        <v>942</v>
+      </c>
+      <c r="L894" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="895" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I895" t="s">
+        <v>978</v>
+      </c>
+      <c r="J895" t="s">
+        <v>879</v>
+      </c>
+      <c r="K895" t="s">
+        <v>935</v>
+      </c>
+      <c r="L895" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="896" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I896" t="s">
+        <v>979</v>
+      </c>
+      <c r="J896" t="s">
+        <v>879</v>
+      </c>
+      <c r="K896" t="s">
+        <v>938</v>
+      </c>
+      <c r="L896" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="897" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I897" t="s">
+        <v>980</v>
+      </c>
+      <c r="J897" t="s">
+        <v>879</v>
+      </c>
+      <c r="K897" t="s">
+        <v>946</v>
+      </c>
+      <c r="L897" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="898" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I898" t="s">
+        <v>981</v>
+      </c>
+      <c r="J898" t="s">
+        <v>879</v>
+      </c>
+      <c r="K898" t="s">
+        <v>946</v>
+      </c>
+      <c r="L898" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="899" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I899" t="s">
+        <v>982</v>
+      </c>
+      <c r="J899" t="s">
+        <v>879</v>
+      </c>
+      <c r="K899" t="s">
+        <v>949</v>
+      </c>
+      <c r="L899" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="900" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I900" t="s">
+        <v>983</v>
+      </c>
+      <c r="J900" t="s">
+        <v>879</v>
+      </c>
+      <c r="K900" t="s">
+        <v>940</v>
+      </c>
+      <c r="L900" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="901" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I901" t="s">
+        <v>984</v>
+      </c>
+      <c r="J901" t="s">
+        <v>879</v>
+      </c>
+      <c r="K901" t="s">
+        <v>938</v>
+      </c>
+      <c r="L901" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="902" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I902" t="s">
+        <v>985</v>
+      </c>
+      <c r="J902" t="s">
+        <v>879</v>
+      </c>
+      <c r="K902" t="s">
+        <v>946</v>
+      </c>
+      <c r="L902" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="903" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I903" t="s">
+        <v>985</v>
+      </c>
+      <c r="J903" t="s">
+        <v>879</v>
+      </c>
+      <c r="K903" t="s">
+        <v>942</v>
+      </c>
+      <c r="L903" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="904" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I904" t="s">
+        <v>986</v>
+      </c>
+      <c r="J904" t="s">
+        <v>879</v>
+      </c>
+      <c r="K904" t="s">
+        <v>946</v>
+      </c>
+      <c r="L904" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="905" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I905" t="s">
+        <v>987</v>
+      </c>
+      <c r="J905" t="s">
+        <v>879</v>
+      </c>
+      <c r="K905" t="s">
+        <v>964</v>
+      </c>
+      <c r="L905" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="906" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I906" t="s">
+        <v>989</v>
+      </c>
+      <c r="J906" t="s">
+        <v>879</v>
+      </c>
+      <c r="K906" t="s">
+        <v>940</v>
+      </c>
+      <c r="L906" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="907" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I907" t="s">
+        <v>990</v>
+      </c>
+      <c r="J907" t="s">
+        <v>879</v>
+      </c>
+      <c r="K907" t="s">
+        <v>946</v>
+      </c>
+      <c r="L907" t="s">
+        <v>929</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C7:H922">
+    <sortState ref="C8:H922">
+      <sortCondition descending="1" ref="F7:F922"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="F8:F922">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O202"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1016348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="G9">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="G10">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4.0220000000000002</v>
+      </c>
+      <c r="G11">
+        <v>4.0220000000000002</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="G12">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>41361</v>
+      </c>
+      <c r="D13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3.964</v>
+      </c>
+      <c r="G13">
+        <v>1.321</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M13">
+        <f>I4/C14</f>
+        <v>1.6580246913580246E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>243</v>
+      </c>
+      <c r="D14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.56</v>
+      </c>
+      <c r="G14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>5907</v>
+      </c>
+      <c r="D15">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.931</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>324</v>
+      </c>
+      <c r="M15">
+        <f>1/M13</f>
+        <v>60.31273268801192</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>6185</v>
+      </c>
+      <c r="D16">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.927</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>268</v>
+      </c>
+      <c r="D17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.851</v>
+      </c>
+      <c r="G17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>273</v>
+      </c>
+      <c r="D18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G18">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>273</v>
+      </c>
+      <c r="D19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="G19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>8481</v>
+      </c>
+      <c r="D20">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.66</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1385</v>
+      </c>
+      <c r="D21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>8462</v>
+      </c>
+      <c r="D22">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.627</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>7077</v>
+      </c>
+      <c r="D23">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.62</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1293</v>
+      </c>
+      <c r="D24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1291</v>
+      </c>
+      <c r="D25">
+        <v>1E-3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1259</v>
+      </c>
+      <c r="D26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1028</v>
+      </c>
+      <c r="D27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G27">
+        <v>1E-3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>922</v>
+      </c>
+      <c r="D28">
+        <v>1E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.437</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>816</v>
+      </c>
+      <c r="D29">
+        <v>2E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>816</v>
+      </c>
+      <c r="D30">
+        <v>2E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>815</v>
+      </c>
+      <c r="D31">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>5680</v>
+      </c>
+      <c r="D32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.317</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>8462</v>
+      </c>
+      <c r="D33">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>2770</v>
+      </c>
+      <c r="D34">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.23</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D36">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>2770</v>
+      </c>
+      <c r="D37">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>3125</v>
+      </c>
+      <c r="D38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0.192</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>2770</v>
+      </c>
+      <c r="D39">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>475</v>
+      </c>
+      <c r="D40">
+        <v>2E-3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>17611</v>
+      </c>
+      <c r="D41">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0.157</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>273</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="G42">
+        <v>1E-3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1385</v>
+      </c>
+      <c r="D43">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>8894</v>
+      </c>
+      <c r="D44">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>243</v>
+      </c>
+      <c r="D45">
+        <v>2E-3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G45">
+        <v>1E-3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1338</v>
+      </c>
+      <c r="D46">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0.13</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1385</v>
+      </c>
+      <c r="D47">
+        <v>0.01</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0.126</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>1E-3</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0.113</v>
+      </c>
+      <c r="G48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>276</v>
+      </c>
+      <c r="D49">
+        <v>1E-3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.113</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>32793</v>
+      </c>
+      <c r="D50">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0.109</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1338</v>
+      </c>
+      <c r="D51">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0.107</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>542</v>
+      </c>
+      <c r="D52">
+        <v>1E-3</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0.107</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>21513</v>
+      </c>
+      <c r="D53">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0.106</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>13375</v>
+      </c>
+      <c r="D54">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0.106</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>13375</v>
+      </c>
+      <c r="D55">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>11893</v>
+      </c>
+      <c r="D56">
+        <v>0.03</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>4108</v>
+      </c>
+      <c r="D57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1385</v>
+      </c>
+      <c r="D58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>8429</v>
+      </c>
+      <c r="D59">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <v>1E-3</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G60">
+        <v>1E-3</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>37389</v>
+      </c>
+      <c r="D61">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1279</v>
+      </c>
+      <c r="D62">
+        <v>1E-3</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>547</v>
+      </c>
+      <c r="D63">
+        <v>2E-3</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>13278</v>
+      </c>
+      <c r="D64">
+        <v>0.04</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G65">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1042</v>
+      </c>
+      <c r="D66">
+        <v>1E-3</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>8429</v>
+      </c>
+      <c r="D67">
+        <v>0.04</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>2858</v>
+      </c>
+      <c r="D68">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>7481</v>
+      </c>
+      <c r="D69">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>4711</v>
+      </c>
+      <c r="D70">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>92</v>
+      </c>
+      <c r="D71">
+        <v>1E-3</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>243</v>
+      </c>
+      <c r="D72">
+        <v>1E-3</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>19309</v>
+      </c>
+      <c r="D73">
+        <v>0.04</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0.04</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>1429</v>
+      </c>
+      <c r="D74">
+        <v>1E-3</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.04</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>1429</v>
+      </c>
+      <c r="D75">
+        <v>1E-3</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>42</v>
+      </c>
+      <c r="D76">
+        <v>1E-3</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G76">
+        <v>1E-3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>1429</v>
+      </c>
+      <c r="D77">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>2723</v>
+      </c>
+      <c r="D78">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>327</v>
+      </c>
+      <c r="D79">
+        <v>1E-3</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C80">
+        <v>12192</v>
+      </c>
+      <c r="D80">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>8894</v>
+      </c>
+      <c r="D81">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>9077</v>
+      </c>
+      <c r="D82">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>64</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>10415</v>
+      </c>
+      <c r="D84">
+        <v>0.01</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0.03</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>1429</v>
+      </c>
+      <c r="D85">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0.03</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>1338</v>
+      </c>
+      <c r="D86">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0.03</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>103680</v>
+      </c>
+      <c r="D87">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>29190</v>
+      </c>
+      <c r="D88">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>30062</v>
+      </c>
+      <c r="D89">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>22025</v>
+      </c>
+      <c r="D90">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>118435</v>
+      </c>
+      <c r="D91">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>8466</v>
+      </c>
+      <c r="D92">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>1429</v>
+      </c>
+      <c r="D93">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>2188</v>
+      </c>
+      <c r="D94">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>528</v>
+      </c>
+      <c r="D95">
+        <v>2E-3</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G96">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G97">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>1385</v>
+      </c>
+      <c r="D98">
+        <v>2E-3</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>1894</v>
+      </c>
+      <c r="D99">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>234</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>556</v>
+      </c>
+      <c r="D101">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>556</v>
+      </c>
+      <c r="D102">
+        <v>1E-3</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>1429</v>
+      </c>
+      <c r="D103">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0.01</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>1385</v>
+      </c>
+      <c r="D104">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0.01</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>31164</v>
+      </c>
+      <c r="D105">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>8894</v>
+      </c>
+      <c r="D106">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>53976</v>
+      </c>
+      <c r="D107">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>14610</v>
+      </c>
+      <c r="D108">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>40</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>40</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>40</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>40</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>23641</v>
+      </c>
+      <c r="D113">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>58385</v>
+      </c>
+      <c r="D114">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G115">
+        <v>1E-3</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G116">
+        <v>1E-3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>24441</v>
+      </c>
+      <c r="D117">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>40</v>
+      </c>
+      <c r="D118">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>40</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>40</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>1385</v>
+      </c>
+      <c r="D121">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>1429</v>
+      </c>
+      <c r="D122">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>2770</v>
+      </c>
+      <c r="D123">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>40</v>
+      </c>
+      <c r="D124">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>1385</v>
+      </c>
+      <c r="D125">
+        <v>1E-3</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>40</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>68</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>28</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>9150</v>
+      </c>
+      <c r="D129">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>4199</v>
+      </c>
+      <c r="D130">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>4711</v>
+      </c>
+      <c r="D131">
+        <v>2E-3</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>2E-3</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>15008</v>
+      </c>
+      <c r="D132">
+        <v>2E-3</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>2E-3</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>1385</v>
+      </c>
+      <c r="D133">
+        <v>2E-3</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>2E-3</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>8462</v>
+      </c>
+      <c r="D134">
+        <v>2E-3</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>2E-3</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>1429</v>
+      </c>
+      <c r="D135">
+        <v>2E-3</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>2E-3</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>8894</v>
+      </c>
+      <c r="D136">
+        <v>2E-3</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>2E-3</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>1385</v>
+      </c>
+      <c r="D137">
+        <v>2E-3</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>2E-3</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>92</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>2E-3</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>243</v>
+      </c>
+      <c r="D139">
+        <v>1E-3</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1E-3</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>1429</v>
+      </c>
+      <c r="D140">
+        <v>1E-3</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>1E-3</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>1385</v>
+      </c>
+      <c r="D141">
+        <v>1E-3</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1E-3</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>2245</v>
+      </c>
+      <c r="D142">
+        <v>1E-3</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>1E-3</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>2732</v>
+      </c>
+      <c r="D143">
+        <v>1E-3</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1E-3</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>1429</v>
+      </c>
+      <c r="D144">
+        <v>1E-3</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1E-3</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>2858</v>
+      </c>
+      <c r="D145">
+        <v>1E-3</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>1E-3</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>2770</v>
+      </c>
+      <c r="D146">
+        <v>1E-3</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>1E-3</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>2589</v>
+      </c>
+      <c r="D147">
+        <v>1E-3</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>1E-3</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>23</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>1E-3</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1E-3</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1E-3</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>40</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>1E-3</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1E-3</v>
+      </c>
+      <c r="G152">
+        <v>1E-3</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>1E-3</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>243</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="161" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>200</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="163" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>40</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="166" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>351</v>
+      </c>
+      <c r="I167" t="s">
+        <v>875</v>
+      </c>
+      <c r="J167" t="s">
+        <v>878</v>
+      </c>
+      <c r="K167" t="s">
+        <v>879</v>
+      </c>
+      <c r="L167" t="s">
+        <v>880</v>
+      </c>
+      <c r="M167" t="s">
+        <v>881</v>
+      </c>
+      <c r="N167" t="s">
+        <v>882</v>
+      </c>
+      <c r="O167" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="168" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="169" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="170" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>80</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="171" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="172" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="173" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>30</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="174" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>4</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="175" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>12</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="176" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>40</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="177" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>5</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="178" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="179" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I179" t="s">
+        <v>927</v>
+      </c>
+      <c r="J179" t="s">
+        <v>879</v>
+      </c>
+      <c r="K179" t="s">
+        <v>928</v>
+      </c>
+      <c r="L179" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="180" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I180" t="s">
+        <v>932</v>
+      </c>
+      <c r="J180" t="s">
+        <v>879</v>
+      </c>
+      <c r="K180" t="s">
+        <v>933</v>
+      </c>
+      <c r="L180" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="181" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181" t="s">
+        <v>701</v>
+      </c>
+      <c r="I181" t="s">
+        <v>937</v>
+      </c>
+      <c r="J181" t="s">
+        <v>879</v>
+      </c>
+      <c r="K181" t="s">
+        <v>938</v>
+      </c>
+      <c r="L181" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="182" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I182" t="s">
+        <v>939</v>
+      </c>
+      <c r="J182" t="s">
+        <v>879</v>
+      </c>
+      <c r="K182" t="s">
+        <v>935</v>
+      </c>
+      <c r="L182" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="183" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>184</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183" t="s">
+        <v>870</v>
+      </c>
+      <c r="I183" t="s">
+        <v>943</v>
+      </c>
+      <c r="J183" t="s">
+        <v>879</v>
+      </c>
+      <c r="K183" t="s">
+        <v>944</v>
+      </c>
+      <c r="L183" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="184" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184" t="s">
+        <v>872</v>
+      </c>
+      <c r="I184" t="s">
+        <v>953</v>
+      </c>
+      <c r="J184" t="s">
+        <v>879</v>
+      </c>
+      <c r="K184" t="s">
+        <v>946</v>
+      </c>
+      <c r="L184" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="185" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>92</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185" t="s">
+        <v>920</v>
+      </c>
+      <c r="I185" t="s">
+        <v>954</v>
+      </c>
+      <c r="J185" t="s">
+        <v>879</v>
+      </c>
+      <c r="K185" t="s">
+        <v>940</v>
+      </c>
+      <c r="L185" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="186" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>92</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186" t="s">
+        <v>924</v>
+      </c>
+      <c r="I186" t="s">
+        <v>954</v>
+      </c>
+      <c r="J186" t="s">
+        <v>879</v>
+      </c>
+      <c r="K186" t="s">
+        <v>955</v>
+      </c>
+      <c r="L186" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="187" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>257</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187" t="s">
+        <v>925</v>
+      </c>
+      <c r="I187" t="s">
+        <v>958</v>
+      </c>
+      <c r="J187" t="s">
+        <v>879</v>
+      </c>
+      <c r="K187" t="s">
+        <v>940</v>
+      </c>
+      <c r="L187" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="188" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>40</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188" t="s">
+        <v>926</v>
+      </c>
+      <c r="I188" t="s">
+        <v>960</v>
+      </c>
+      <c r="J188" t="s">
+        <v>879</v>
+      </c>
+      <c r="K188" t="s">
+        <v>946</v>
+      </c>
+      <c r="L188" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="189" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189" t="s">
+        <v>926</v>
+      </c>
+      <c r="I189" t="s">
+        <v>961</v>
+      </c>
+      <c r="J189" t="s">
+        <v>879</v>
+      </c>
+      <c r="K189" t="s">
+        <v>940</v>
+      </c>
+      <c r="L189" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="190" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190" t="s">
+        <v>926</v>
+      </c>
+      <c r="I190" t="s">
+        <v>968</v>
+      </c>
+      <c r="J190" t="s">
+        <v>879</v>
+      </c>
+      <c r="K190" t="s">
+        <v>969</v>
+      </c>
+      <c r="L190" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="191" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191" t="s">
+        <v>926</v>
+      </c>
+      <c r="I191" t="s">
+        <v>970</v>
+      </c>
+      <c r="J191" t="s">
+        <v>879</v>
+      </c>
+      <c r="K191" t="s">
+        <v>938</v>
+      </c>
+      <c r="L191" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="192" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>1429</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192" t="s">
+        <v>926</v>
+      </c>
+      <c r="I192" t="s">
+        <v>975</v>
+      </c>
+      <c r="J192" t="s">
+        <v>879</v>
+      </c>
+      <c r="K192" t="s">
+        <v>933</v>
+      </c>
+      <c r="L192" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="193" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>40</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193" t="s">
+        <v>926</v>
+      </c>
+      <c r="I193" t="s">
+        <v>976</v>
+      </c>
+      <c r="J193" t="s">
+        <v>879</v>
+      </c>
+      <c r="K193" t="s">
+        <v>938</v>
+      </c>
+      <c r="L193" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="194" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194" t="s">
+        <v>926</v>
+      </c>
+      <c r="I194" t="s">
+        <v>979</v>
+      </c>
+      <c r="J194" t="s">
+        <v>879</v>
+      </c>
+      <c r="K194" t="s">
+        <v>938</v>
+      </c>
+      <c r="L194" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="195" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>99</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195" t="s">
+        <v>926</v>
+      </c>
+      <c r="I195" t="s">
+        <v>982</v>
+      </c>
+      <c r="J195" t="s">
+        <v>879</v>
+      </c>
+      <c r="K195" t="s">
+        <v>949</v>
+      </c>
+      <c r="L195" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="196" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>23</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196" t="s">
+        <v>926</v>
+      </c>
+      <c r="I196" t="s">
+        <v>989</v>
+      </c>
+      <c r="J196" t="s">
+        <v>879</v>
+      </c>
+      <c r="K196" t="s">
+        <v>940</v>
+      </c>
+      <c r="L196" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="197" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>40</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197" t="s">
+        <v>926</v>
+      </c>
+      <c r="I197" t="s">
+        <v>990</v>
+      </c>
+      <c r="J197" t="s">
+        <v>879</v>
+      </c>
+      <c r="K197" t="s">
+        <v>946</v>
+      </c>
+      <c r="L197" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="198" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>8</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="199" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="200" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>33</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="201" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>40</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="202" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>23</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C8:H8">
+    <sortState ref="C9:H202">
+      <sortCondition descending="1" ref="F8"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="F9:F202">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D202">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>